--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AC5442-2F05-401B-AAB6-BD745BA367A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51971111-E443-4AE3-8929-D2EC75C7BFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8EB0B98-0B02-4E7F-A037-A9A36D7D8B48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -53,15 +53,6 @@
     <t>LNAME 2</t>
   </si>
   <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>STREET</t>
-  </si>
-  <si>
     <t>PHONE</t>
   </si>
   <si>
@@ -77,12 +68,6 @@
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>COSTA RICA</t>
-  </si>
-  <si>
-    <t>SAN JOSE</t>
-  </si>
-  <si>
     <t>dgabrielsolo@gmail.com</t>
   </si>
   <si>
@@ -95,10 +80,67 @@
     <t>ANDREY</t>
   </si>
   <si>
-    <t>LIMON</t>
-  </si>
-  <si>
     <t>jrandrey@gmail.com</t>
+  </si>
+  <si>
+    <t>FULL NAME</t>
+  </si>
+  <si>
+    <t>ANDREY SOLANO LOPEZ</t>
+  </si>
+  <si>
+    <t>GABRIEL SOLANO LOPEZ</t>
+  </si>
+  <si>
+    <t>WEYNER SOLANO LOPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XINIA MARIA LOPEZ PRADO	</t>
+  </si>
+  <si>
+    <t>XINIA</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>JUNIOR ALCIDES SOLANO JIMENEZ</t>
+  </si>
+  <si>
+    <t>ALCIDES</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>lopezpxinia@gmail.com</t>
+  </si>
+  <si>
+    <t>junior64@gmail.com</t>
+  </si>
+  <si>
+    <t>ID EXPIRING DATE</t>
+  </si>
+  <si>
+    <t>22/06/2024</t>
+  </si>
+  <si>
+    <t>15/11/2027</t>
+  </si>
+  <si>
+    <t>30/10/2032</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>WHATSAPP</t>
+  </si>
+  <si>
+    <t>PHONE CALL</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
   </si>
 </sst>
 </file>
@@ -122,20 +164,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -162,19 +216,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,19 +559,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC5CCA-3FE8-4E75-AAF4-D5968CA38988}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="6" customWidth="1"/>
+    <col min="4" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25" style="6" customWidth="1"/>
+    <col min="10" max="12" width="12.7109375" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,132 +584,211 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>701960905</v>
+      </c>
+      <c r="B2" s="7">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7">
+        <v>44004400</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>702200528</v>
+      </c>
+      <c r="B3" s="3">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="3">
+        <v>22002200</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>701960905</v>
-      </c>
-      <c r="B2">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>117620194</v>
+      </c>
+      <c r="B4" s="7">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7">
+        <v>88008800</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I4" s="7">
+        <v>46816</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>107990490</v>
+      </c>
+      <c r="B5" s="3">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
+        <v>77007700</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>702200528</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>28</v>
-      </c>
-      <c r="I3">
-        <v>64590819</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>117620194</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>302710573</v>
+      </c>
+      <c r="B6" s="7">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>28</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G6" s="7">
+        <v>33003300</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7">
+        <v>46209</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{A7AD1790-4CE6-4989-ACAF-883D38E6683D}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{912D4F2B-91E7-4064-A3BB-15D55E65C39B}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{D399DB0C-AE29-4260-9337-EA0124489B19}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51971111-E443-4AE3-8929-D2EC75C7BFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E40026-E3C5-487B-8853-265643E530EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8EB0B98-0B02-4E7F-A037-A9A36D7D8B48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>25/01/2024</t>
+  </si>
+  <si>
+    <t>28/01/2024</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,9 +242,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +250,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,24 +571,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC5CCA-3FE8-4E75-AAF4-D5968CA38988}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="6" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="25" style="6" customWidth="1"/>
-    <col min="10" max="12" width="12.7109375" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="15.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="5" customWidth="1"/>
+    <col min="4" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25" style="5" customWidth="1"/>
+    <col min="10" max="12" width="12.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,42 +626,48 @@
       <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>701960905</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>44004400</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>702200528</v>
       </c>
@@ -670,7 +689,7 @@
       <c r="G3" s="3">
         <v>22002200</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -683,42 +702,48 @@
       <c r="L3" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="M3" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>117620194</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>88008800</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>46816</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>107990490</v>
       </c>
@@ -740,7 +765,7 @@
       <c r="G5" s="3">
         <v>77007700</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -753,40 +778,46 @@
         <v>31</v>
       </c>
       <c r="L5" s="3"/>
+      <c r="M5" s="8">
+        <v>45293</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>302710573</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>59</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>33003300</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>46209</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9">
+        <v>45324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E40026-E3C5-487B-8853-265643E530EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458254B-39D1-4010-870E-DD7DF36A8D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8EB0B98-0B02-4E7F-A037-A9A36D7D8B48}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -574,7 +574,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,35 +8,112 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458254B-39D1-4010-870E-DD7DF36A8D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6943DC6-A5FF-4A4A-960D-A9915C76B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8EB0B98-0B02-4E7F-A037-A9A36D7D8B48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>LNAME 1</t>
+  </si>
+  <si>
+    <t>LNAME 2</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ID EXPIRING DATE</t>
+  </si>
+  <si>
+    <t>PHONE CALL</t>
+  </si>
+  <si>
+    <t>WHATSAPP</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ANDREY</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>jrandrey@gmail.com</t>
+  </si>
+  <si>
+    <t>22/06/2024</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>25/01/2024</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>dgabrielsolo@gmail.com</t>
+  </si>
+  <si>
+    <t>15/11/2027</t>
+  </si>
+  <si>
+    <t>wesolo@gmail.com</t>
+  </si>
+  <si>
+    <t>28/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XINIA MARIA LOPEZ PRADO	</t>
+  </si>
+  <si>
+    <t>XINIA</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>lopezpxinia@gmail.com</t>
+  </si>
+  <si>
+    <t>30/10/2032</t>
+  </si>
+  <si>
+    <t>JUNIOR ALCIDES SOLANO JIMENEZ</t>
+  </si>
+  <si>
+    <t>ALCIDES</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>junior64@gmail.com</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -44,48 +121,12 @@
     <t>AGE</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>LNAME 1</t>
-  </si>
-  <si>
-    <t>LNAME 2</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>dgabrielsolo@gmail.com</t>
+    <t>FNAME</t>
   </si>
   <si>
     <t>WEYNER</t>
   </si>
   <si>
-    <t>wesolo@gmail.com</t>
-  </si>
-  <si>
-    <t>ANDREY</t>
-  </si>
-  <si>
-    <t>jrandrey@gmail.com</t>
-  </si>
-  <si>
-    <t>FULL NAME</t>
-  </si>
-  <si>
     <t>ANDREY SOLANO LOPEZ</t>
   </si>
   <si>
@@ -93,63 +134,6 @@
   </si>
   <si>
     <t>WEYNER SOLANO LOPEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XINIA MARIA LOPEZ PRADO	</t>
-  </si>
-  <si>
-    <t>XINIA</t>
-  </si>
-  <si>
-    <t>PRADO</t>
-  </si>
-  <si>
-    <t>JUNIOR ALCIDES SOLANO JIMENEZ</t>
-  </si>
-  <si>
-    <t>ALCIDES</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>lopezpxinia@gmail.com</t>
-  </si>
-  <si>
-    <t>junior64@gmail.com</t>
-  </si>
-  <si>
-    <t>ID EXPIRING DATE</t>
-  </si>
-  <si>
-    <t>22/06/2024</t>
-  </si>
-  <si>
-    <t>15/11/2027</t>
-  </si>
-  <si>
-    <t>30/10/2032</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>PHONE CALL</t>
-  </si>
-  <si>
-    <t>E-MAIL</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>25/01/2024</t>
-  </si>
-  <si>
-    <t>28/01/2024</t>
   </si>
 </sst>
 </file>
@@ -570,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC5CCA-3FE8-4E75-AAF4-D5968CA38988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -586,48 +570,49 @@
     <col min="9" max="9" width="25" style="5" customWidth="1"/>
     <col min="10" max="12" width="12.7109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="14" max="14" width="9.140625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,33 +623,33 @@
         <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="6">
         <v>44004400</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,35 +660,35 @@
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3">
         <v>22002200</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,33 +699,33 @@
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6">
         <v>88008800</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6">
-        <v>46816</v>
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,16 +736,16 @@
         <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3">
         <v>77007700</v>
@@ -769,13 +754,13 @@
         <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="8">
@@ -790,28 +775,28 @@
         <v>59</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6">
         <v>33003300</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="6">
-        <v>46209</v>
+        <v>30</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6943DC6-A5FF-4A4A-960D-A9915C76B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4570733-2840-40B8-BFCB-106BB8354552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4570733-2840-40B8-BFCB-106BB8354552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0D2A13-833E-4EE8-80F3-4A994EA1851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0D2A13-833E-4EE8-80F3-4A994EA1851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E672D99-D506-45EC-9A29-90C5F0CAE9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>NAME</t>
   </si>
@@ -49,9 +49,6 @@
     <t>E-MAIL</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>ANDREY</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>25/01/2024</t>
-  </si>
-  <si>
     <t>GABRIEL</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>wesolo@gmail.com</t>
   </si>
   <si>
-    <t>28/01/2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">XINIA MARIA LOPEZ PRADO	</t>
   </si>
   <si>
@@ -134,13 +125,31 @@
   </si>
   <si>
     <t>WEYNER SOLANO LOPEZ</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>01/02/24</t>
+  </si>
+  <si>
+    <t>01/02/25</t>
+  </si>
+  <si>
+    <t>01/02/26</t>
+  </si>
+  <si>
+    <t>01/02/27</t>
+  </si>
+  <si>
+    <t>01/02/28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +173,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +190,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,26 +229,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,31 +564,30 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="5" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25" style="5" customWidth="1"/>
-    <col min="10" max="12" width="12.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="3" customWidth="1"/>
+    <col min="4" max="7" width="15.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25" style="3" customWidth="1"/>
+    <col min="10" max="12" width="12.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -611,200 +616,201 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
+      <c r="M1" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>701960905</v>
-      </c>
-      <c r="B2" s="6">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="4">
+        <v>107990490</v>
+      </c>
+      <c r="B2" s="4">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6">
-        <v>44004400</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4">
+        <v>77007700</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="6"/>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
+        <v>701960905</v>
+      </c>
+      <c r="B3" s="4">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44004400</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>702200528</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="4">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>22002200</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>117620194</v>
+      </c>
+      <c r="B5" s="4">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3">
-        <v>22002200</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G5" s="4">
+        <v>88008800</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>117620194</v>
-      </c>
-      <c r="B4" s="6">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6">
-        <v>88008800</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>107990490</v>
-      </c>
-      <c r="B5" s="3">
-        <v>52</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3">
-        <v>77007700</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="8">
-        <v>45293</v>
+      <c r="L5" s="4"/>
+      <c r="M5" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>302710573</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>59</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4">
+        <v>33003300</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6">
-        <v>33003300</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="9">
-        <v>45324</v>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>